--- a/out/production/asignacionStandsWB/files/AEA.xlsx
+++ b/out/production/asignacionStandsWB/files/AEA.xlsx
@@ -380,7 +380,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>

--- a/out/production/asignacionStandsWB/files/AEA.xlsx
+++ b/out/production/asignacionStandsWB/files/AEA.xlsx
@@ -4,26 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="576" yWindow="84" windowWidth="15876" windowHeight="4800"/>
+    <workbookView xWindow="576" yWindow="84" windowWidth="15876" windowHeight="4800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ASOCIAR" sheetId="1" r:id="rId1"/>
     <sheet name="STD" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="36">
   <si>
     <t>AEA</t>
   </si>
   <si>
-    <t>Terminal</t>
-  </si>
-  <si>
     <t>Codigo</t>
   </si>
   <si>
@@ -36,16 +32,97 @@
     <t>138A</t>
   </si>
   <si>
+    <t>PASARELA</t>
+  </si>
+  <si>
+    <t>IBE</t>
+  </si>
+  <si>
+    <t>HOLD1</t>
+  </si>
+  <si>
+    <t>HOLD2</t>
+  </si>
+  <si>
+    <t>HOLD3</t>
+  </si>
+  <si>
+    <t>HOLD4</t>
+  </si>
+  <si>
+    <t>133A</t>
+  </si>
+  <si>
+    <t>134A</t>
+  </si>
+  <si>
+    <t>136N</t>
+  </si>
+  <si>
+    <t>137N</t>
+  </si>
+  <si>
+    <t>138N</t>
+  </si>
+  <si>
+    <t>141N</t>
+  </si>
+  <si>
+    <t>142N</t>
+  </si>
+  <si>
+    <t>142A</t>
+  </si>
+  <si>
+    <t>143N</t>
+  </si>
+  <si>
+    <t>143A</t>
+  </si>
+  <si>
+    <t>81N</t>
+  </si>
+  <si>
+    <t>81A</t>
+  </si>
+  <si>
+    <t>83N</t>
+  </si>
+  <si>
+    <t>83A</t>
+  </si>
+  <si>
+    <t>113A</t>
+  </si>
+  <si>
+    <t>119A</t>
+  </si>
+  <si>
+    <t>121A</t>
+  </si>
+  <si>
+    <t>124A</t>
+  </si>
+  <si>
+    <t>126A</t>
+  </si>
+  <si>
+    <t>128A</t>
+  </si>
+  <si>
+    <t>REMOTO</t>
+  </si>
+  <si>
+    <t>TERMINAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
     <t>NAT</t>
   </si>
   <si>
     <t>AAT</t>
-  </si>
-  <si>
-    <t>PASARELA</t>
-  </si>
-  <si>
-    <t>IBE</t>
   </si>
 </sst>
 </file>
@@ -61,12 +138,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -81,8 +170,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,7 +477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -409,7 +507,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>2628</v>
@@ -425,232 +523,874 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="K87" sqref="K87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="2" width="11.5546875" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>206</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>208</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>210</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>212</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>214</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>217</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>221</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>245</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>247</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>248</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>250</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>270</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>273</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>277</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>281</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>284</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>285</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>286</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>287</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>288</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>290</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>291</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>292</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>294</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>295</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>296</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>310</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>340</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>421</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>425</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>165</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>164</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>163</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>162</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>161</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>131</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>132</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>136</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>137</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>138</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>139</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>141</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>214</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>217</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>221</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>245</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>247</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>250</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>270</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>273</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>277</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>281</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>285</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>287</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>291</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>295</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>340</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>137</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>136</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
+      <c r="B60" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <v>142</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C62" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1">
+        <v>143</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1">
+        <v>144</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1">
+        <v>109</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1">
+        <v>115</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1">
+        <v>120</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1">
+        <v>121</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1">
+        <v>125</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1">
+        <v>126</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1">
+        <v>906</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C80" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/out/production/asignacionStandsWB/files/AEA.xlsx
+++ b/out/production/asignacionStandsWB/files/AEA.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="576" yWindow="84" windowWidth="15876" windowHeight="4800" activeTab="1"/>
+    <workbookView xWindow="576" yWindow="84" windowWidth="15876" windowHeight="4800" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ASOCIAR" sheetId="1" r:id="rId1"/>
     <sheet name="STD" sheetId="2" r:id="rId2"/>
+    <sheet name="CIA" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="105">
   <si>
     <t>AEA</t>
   </si>
@@ -116,20 +117,227 @@
     <t>TERMINAL</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
     <t>NAT</t>
   </si>
   <si>
     <t>AAT</t>
+  </si>
+  <si>
+    <t>Aerolínea</t>
+  </si>
+  <si>
+    <t>Nombre aerolínea</t>
+  </si>
+  <si>
+    <t>IBERIA</t>
+  </si>
+  <si>
+    <t>THY</t>
+  </si>
+  <si>
+    <t>TURKISH AIRLINES</t>
+  </si>
+  <si>
+    <t>AAL</t>
+  </si>
+  <si>
+    <t>AMERICAN AIRLINES INC.</t>
+  </si>
+  <si>
+    <t>QTR</t>
+  </si>
+  <si>
+    <t>QATAR AIRWAYS</t>
+  </si>
+  <si>
+    <t>ETD</t>
+  </si>
+  <si>
+    <t>ETIHAD AIRWAYS</t>
+  </si>
+  <si>
+    <t>UAL</t>
+  </si>
+  <si>
+    <t>UNITED AIRLINES INC. SUCURSAL EN ESPAÑA</t>
+  </si>
+  <si>
+    <t>UAE</t>
+  </si>
+  <si>
+    <t>EMIRATES</t>
+  </si>
+  <si>
+    <t>AIR EUROPA</t>
+  </si>
+  <si>
+    <t>AVA</t>
+  </si>
+  <si>
+    <t>AVIANCA</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>DELTA AIR LINES Inc.</t>
+  </si>
+  <si>
+    <t>SIA</t>
+  </si>
+  <si>
+    <t>SINGAPORE AIRLINES, LTD.</t>
+  </si>
+  <si>
+    <t>ELY</t>
+  </si>
+  <si>
+    <t>EL AL- ISRAEL AIRLINES, LTD.</t>
+  </si>
+  <si>
+    <t>ACA</t>
+  </si>
+  <si>
+    <t>AIR CANADA</t>
+  </si>
+  <si>
+    <t>TAM</t>
+  </si>
+  <si>
+    <t>TAM LINHAS AEREAS, S.A.</t>
+  </si>
+  <si>
+    <t>AIZ</t>
+  </si>
+  <si>
+    <t>ARKIA ISRAEL INLAND AIRLINES</t>
+  </si>
+  <si>
+    <t>LOT</t>
+  </si>
+  <si>
+    <t>LOT-POLSKIE LINIE LOTNICZE</t>
+  </si>
+  <si>
+    <t>SVA</t>
+  </si>
+  <si>
+    <t>SAUDI ARABIAN AIRLINES</t>
+  </si>
+  <si>
+    <t>KAL</t>
+  </si>
+  <si>
+    <t>KOREAN AIR LINES CO, LTD.</t>
+  </si>
+  <si>
+    <t>AAR</t>
+  </si>
+  <si>
+    <t>ASIANA AIRLINES Inc.</t>
+  </si>
+  <si>
+    <t>BAW</t>
+  </si>
+  <si>
+    <t>BRITISH AIRWAYS</t>
+  </si>
+  <si>
+    <t>BCS</t>
+  </si>
+  <si>
+    <t>EUROPEAN AIR TRANSPORT LEIPZIG GMBH</t>
+  </si>
+  <si>
+    <t>UPS</t>
+  </si>
+  <si>
+    <t>UPS UNITED PARCEL SERVICE</t>
+  </si>
+  <si>
+    <t>FDX</t>
+  </si>
+  <si>
+    <t>FEDERAL EXPRESS CORPORATION (FEDEX SPAIN S.L.)</t>
+  </si>
+  <si>
+    <t>JMK</t>
+  </si>
+  <si>
+    <t>JETMAGIC LTD</t>
+  </si>
+  <si>
+    <t>EXS</t>
+  </si>
+  <si>
+    <t>JET2.COM LIMITED</t>
+  </si>
+  <si>
+    <t>WJA</t>
+  </si>
+  <si>
+    <t>WESTJET AIRLINES LTD</t>
+  </si>
+  <si>
+    <t>TSC</t>
+  </si>
+  <si>
+    <t>AIR TRANSAT</t>
+  </si>
+  <si>
+    <t>ICE</t>
+  </si>
+  <si>
+    <t>ICELANDAIR</t>
+  </si>
+  <si>
+    <t>CSZ</t>
+  </si>
+  <si>
+    <t>SHENZHEN AIRLINES</t>
+  </si>
+  <si>
+    <t>CCA</t>
+  </si>
+  <si>
+    <t>EVE</t>
+  </si>
+  <si>
+    <t>OBS</t>
+  </si>
+  <si>
+    <t>CUB</t>
+  </si>
+  <si>
+    <t>APZ</t>
+  </si>
+  <si>
+    <t>EVELOP AIRLINES S.L</t>
+  </si>
+  <si>
+    <t>AIR CHINA</t>
+  </si>
+  <si>
+    <t>ORBEST, S.A</t>
+  </si>
+  <si>
+    <t>AIR PREMIA</t>
+  </si>
+  <si>
+    <t>CUBANA DE AVIACION</t>
+  </si>
+  <si>
+    <t>DIM</t>
+  </si>
+  <si>
+    <t>MTO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,8 +345,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,8 +372,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -166,11 +387,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -181,6 +417,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,10 +773,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="K87" sqref="K87"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -573,7 +823,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -584,7 +834,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -595,7 +845,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -606,7 +856,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -617,7 +867,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -628,7 +878,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -639,7 +889,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -650,7 +900,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -661,7 +911,7 @@
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -672,7 +922,7 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -683,7 +933,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -694,7 +944,7 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -705,7 +955,7 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -716,7 +966,7 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -727,7 +977,7 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -738,7 +988,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -749,7 +999,7 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -760,7 +1010,7 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -771,7 +1021,7 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -782,7 +1032,7 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -793,7 +1043,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -804,7 +1054,7 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -815,7 +1065,7 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -826,7 +1076,7 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -837,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -848,7 +1098,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -859,7 +1109,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -870,7 +1120,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -881,7 +1131,7 @@
         <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -892,7 +1142,7 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -903,7 +1153,7 @@
         <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -914,7 +1164,7 @@
         <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -925,7 +1175,7 @@
         <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -936,7 +1186,7 @@
         <v>31</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -947,7 +1197,7 @@
         <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -958,7 +1208,7 @@
         <v>31</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -969,7 +1219,7 @@
         <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -980,7 +1230,7 @@
         <v>31</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -991,7 +1241,7 @@
         <v>31</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1002,7 +1252,7 @@
         <v>31</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1013,7 +1263,7 @@
         <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1024,7 +1274,7 @@
         <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1035,359 +1285,654 @@
         <v>31</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>33</v>
+      <c r="A49" s="1">
+        <v>131</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>132</v>
+      <c r="A51" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1" t="s">
-        <v>12</v>
+      <c r="A53" s="1">
+        <v>136</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>137</v>
+      <c r="A55" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1" t="s">
-        <v>4</v>
+      <c r="A56" s="1">
+        <v>138</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>141</v>
+      <c r="A59" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1" t="s">
-        <v>3</v>
+      <c r="A60" s="1">
+        <v>142</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>142</v>
+      <c r="A61" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1" t="s">
-        <v>20</v>
+      <c r="A63" s="1">
+        <v>143</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>144</v>
+      <c r="A65" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>31</v>
+      <c r="A67" s="1">
+        <v>109</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>109</v>
+      <c r="A68" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1" t="s">
-        <v>25</v>
+      <c r="A69" s="1">
+        <v>115</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>115</v>
+      <c r="A70" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1" t="s">
-        <v>26</v>
+      <c r="A71" s="1">
+        <v>120</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>121</v>
+      <c r="A73" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1" t="s">
-        <v>28</v>
+      <c r="A75" s="1">
+        <v>125</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>126</v>
+      <c r="A77" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C78" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1">
+        <v>906</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C79" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="44.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C79" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="1">
-        <v>906</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C80" t="s">
-        <v>35</v>
+      <c r="B1" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
